--- a/biology/Botanique/Quartaut/Quartaut.xlsx
+++ b/biology/Botanique/Quartaut/Quartaut.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le quartaut, étymologiquement sûrement en rapport avec le nombre quatre, est une unité de mesure française de volume pour des liquides prémétrique.
-En principe, le quartaut valait le quart d'un muid de liquides, soit 72 pintes. Il valait également le double d'un pied-du-roi cube et la moitié d'une feuillette, donc environ 70 litres[1]. Cependant, des disparités régionales existaient : souvent, le quartaut contenait le quart du volume du tonneau traditionnellement employé localement, on avait ainsi des quartauts de 57 litres en Bourgogne et des quartauts de 125 litres à Vouvray[2].
+En principe, le quartaut valait le quart d'un muid de liquides, soit 72 pintes. Il valait également le double d'un pied-du-roi cube et la moitié d'une feuillette, donc environ 70 litres. Cependant, des disparités régionales existaient : souvent, le quartaut contenait le quart du volume du tonneau traditionnellement employé localement, on avait ainsi des quartauts de 57 litres en Bourgogne et des quartauts de 125 litres à Vouvray.
 </t>
         </is>
       </c>
